--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H2">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I2">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J2">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N2">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q2">
-        <v>14.18813121928111</v>
+        <v>8.504939269068332</v>
       </c>
       <c r="R2">
-        <v>127.69318097353</v>
+        <v>76.54445342161499</v>
       </c>
       <c r="S2">
-        <v>0.0008076796934805364</v>
+        <v>0.0008207828853336426</v>
       </c>
       <c r="T2">
-        <v>0.0008076796934805365</v>
+        <v>0.0008207828853336426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H3">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I3">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J3">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q3">
-        <v>1.566951973059778</v>
+        <v>1.455182784514333</v>
       </c>
       <c r="R3">
-        <v>14.102567757538</v>
+        <v>13.096645060629</v>
       </c>
       <c r="S3">
-        <v>8.920098565058017E-05</v>
+        <v>0.0001404347622922365</v>
       </c>
       <c r="T3">
-        <v>8.92009856505802E-05</v>
+        <v>0.0001404347622922365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H4">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I4">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J4">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N4">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q4">
-        <v>6684.526536207336</v>
+        <v>4810.475502772285</v>
       </c>
       <c r="R4">
-        <v>60160.73882586602</v>
+        <v>43294.27952495057</v>
       </c>
       <c r="S4">
-        <v>0.3805262483398436</v>
+        <v>0.4642426992220912</v>
       </c>
       <c r="T4">
-        <v>0.3805262483398437</v>
+        <v>0.4642426992220911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H5">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I5">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J5">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N5">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q5">
-        <v>2.685565455316666</v>
+        <v>2.261139491895333</v>
       </c>
       <c r="R5">
-        <v>24.17008909785</v>
+        <v>20.350255427058</v>
       </c>
       <c r="S5">
-        <v>0.0001528796604886479</v>
+        <v>0.0002182149146025592</v>
       </c>
       <c r="T5">
-        <v>0.0001528796604886479</v>
+        <v>0.0002182149146025592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H6">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I6">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J6">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N6">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O6">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P6">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q6">
-        <v>7311.84288312709</v>
+        <v>3447.926981931646</v>
       </c>
       <c r="R6">
-        <v>65806.58594814381</v>
+        <v>31031.34283738482</v>
       </c>
       <c r="S6">
-        <v>0.4162371299890725</v>
+        <v>0.332747755994216</v>
       </c>
       <c r="T6">
-        <v>0.4162371299890726</v>
+        <v>0.332747755994216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.970055</v>
       </c>
       <c r="I7">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J7">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N7">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q7">
-        <v>0.4684746231583334</v>
+        <v>0.3023919519083333</v>
       </c>
       <c r="R7">
-        <v>4.216271608425001</v>
+        <v>2.721527567175</v>
       </c>
       <c r="S7">
-        <v>2.666858899089772E-05</v>
+        <v>2.918282317331381E-05</v>
       </c>
       <c r="T7">
-        <v>2.666858899089772E-05</v>
+        <v>2.918282317331381E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.970055</v>
       </c>
       <c r="I8">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J8">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q8">
         <v>0.05173882477833334</v>
@@ -948,10 +948,10 @@
         <v>0.465649423005</v>
       </c>
       <c r="S8">
-        <v>2.945306713911601E-06</v>
+        <v>4.993138756413971E-06</v>
       </c>
       <c r="T8">
-        <v>2.945306713911602E-06</v>
+        <v>4.99313875641397E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.970055</v>
       </c>
       <c r="I9">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J9">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N9">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q9">
-        <v>220.7148356357167</v>
+        <v>171.03579824267</v>
       </c>
       <c r="R9">
-        <v>1986.43352072145</v>
+        <v>1539.32218418403</v>
       </c>
       <c r="S9">
-        <v>0.01256450818206452</v>
+        <v>0.01650608564455271</v>
       </c>
       <c r="T9">
-        <v>0.01256450818206452</v>
+        <v>0.01650608564455271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.970055</v>
       </c>
       <c r="I10">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J10">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N10">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q10">
-        <v>0.08867406462499999</v>
+        <v>0.08039450522333334</v>
       </c>
       <c r="R10">
-        <v>0.7980665816249999</v>
+        <v>0.72355054701</v>
       </c>
       <c r="S10">
-        <v>5.047898150156955E-06</v>
+        <v>7.758601428485753E-06</v>
       </c>
       <c r="T10">
-        <v>5.047898150156956E-06</v>
+        <v>7.758601428485753E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.970055</v>
       </c>
       <c r="I11">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J11">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N11">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O11">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P11">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q11">
-        <v>241.42804900274</v>
+        <v>122.5905720333184</v>
       </c>
       <c r="R11">
-        <v>2172.85244102466</v>
+        <v>1103.315148299865</v>
       </c>
       <c r="S11">
-        <v>0.01374363752367502</v>
+        <v>0.01183080093166041</v>
       </c>
       <c r="T11">
-        <v>0.01374363752367503</v>
+        <v>0.0118308009316604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H12">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I12">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J12">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N12">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q12">
-        <v>1.335443018655</v>
+        <v>1.089109755119444</v>
       </c>
       <c r="R12">
-        <v>12.018987167895</v>
+        <v>9.801987796075</v>
       </c>
       <c r="S12">
-        <v>7.602200679552527E-05</v>
+        <v>0.0001051062939982496</v>
       </c>
       <c r="T12">
-        <v>7.602200679552527E-05</v>
+        <v>0.0001051062939982496</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H13">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I13">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J13">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.093691</v>
       </c>
       <c r="O13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q13">
-        <v>0.147487716363</v>
+        <v>0.1863451008827778</v>
       </c>
       <c r="R13">
-        <v>1.327389447267</v>
+        <v>1.677105907945</v>
       </c>
       <c r="S13">
-        <v>8.39594952310061E-06</v>
+        <v>1.79835345946109E-05</v>
       </c>
       <c r="T13">
-        <v>8.395949523100612E-06</v>
+        <v>1.798353459461089E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H14">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I14">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J14">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N14">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q14">
-        <v>629.17407217527</v>
+        <v>616.0109591712966</v>
       </c>
       <c r="R14">
-        <v>5662.566649577429</v>
+        <v>5544.09863254167</v>
       </c>
       <c r="S14">
-        <v>0.03581663532050214</v>
+        <v>0.05944913143643745</v>
       </c>
       <c r="T14">
-        <v>0.03581663532050214</v>
+        <v>0.05944913143643744</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H15">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I15">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J15">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N15">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q15">
-        <v>0.2527760409749999</v>
+        <v>0.2895528116544444</v>
       </c>
       <c r="R15">
-        <v>2.274984368774999</v>
+        <v>2.60597530489</v>
       </c>
       <c r="S15">
-        <v>1.438963822215453E-05</v>
+        <v>2.794376122949529E-05</v>
       </c>
       <c r="T15">
-        <v>1.438963822215454E-05</v>
+        <v>2.794376122949529E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H16">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I16">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J16">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N16">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O16">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P16">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q16">
-        <v>688.219567528716</v>
+        <v>441.5282451949428</v>
       </c>
       <c r="R16">
-        <v>6193.976107758444</v>
+        <v>3973.754206754485</v>
       </c>
       <c r="S16">
-        <v>0.03917788472336</v>
+        <v>0.04261039562803415</v>
       </c>
       <c r="T16">
-        <v>0.03917788472336001</v>
+        <v>0.04261039562803414</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H17">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I17">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J17">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N17">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q17">
-        <v>0.2342204862683334</v>
+        <v>0.08838283523944443</v>
       </c>
       <c r="R17">
-        <v>2.107984376415</v>
+        <v>0.7954455171549999</v>
       </c>
       <c r="S17">
-        <v>1.333333669052822E-05</v>
+        <v>8.529528104407714E-06</v>
       </c>
       <c r="T17">
-        <v>1.333333669052822E-05</v>
+        <v>8.529528104407716E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H18">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I18">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J18">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.093691</v>
       </c>
       <c r="O18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q18">
-        <v>0.02586755418433333</v>
+        <v>0.01512217503477778</v>
       </c>
       <c r="R18">
-        <v>0.232807987659</v>
+        <v>0.136099575313</v>
       </c>
       <c r="S18">
-        <v>1.472547575983873E-06</v>
+        <v>1.459389898609464E-06</v>
       </c>
       <c r="T18">
-        <v>1.472547575983873E-06</v>
+        <v>1.459389898609464E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H19">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I19">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J19">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N19">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q19">
-        <v>110.3494908234567</v>
+        <v>49.99018221460866</v>
       </c>
       <c r="R19">
-        <v>993.14541741111</v>
+        <v>449.9116399314779</v>
       </c>
       <c r="S19">
-        <v>0.006281802835520905</v>
+        <v>0.004824383184685075</v>
       </c>
       <c r="T19">
-        <v>0.006281802835520905</v>
+        <v>0.004824383184685075</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H20">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I20">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J20">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N20">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q20">
-        <v>0.04433384757499999</v>
+        <v>0.02349763035844444</v>
       </c>
       <c r="R20">
-        <v>0.3990046281749999</v>
+        <v>0.211478673226</v>
       </c>
       <c r="S20">
-        <v>2.523767779334305E-06</v>
+        <v>2.267676726893329E-06</v>
       </c>
       <c r="T20">
-        <v>2.523767779334305E-06</v>
+        <v>2.26767672689333E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H21">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I21">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J21">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N21">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O21">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P21">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q21">
-        <v>120.705353589932</v>
+        <v>35.83065707123878</v>
       </c>
       <c r="R21">
-        <v>1086.348182309388</v>
+        <v>322.475913641149</v>
       </c>
       <c r="S21">
-        <v>0.006871325157783235</v>
+        <v>0.003457895366906395</v>
       </c>
       <c r="T21">
-        <v>0.006871325157783237</v>
+        <v>0.003457895366906395</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H22">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I22">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J22">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1798,28 +1798,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N22">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O22">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P22">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q22">
-        <v>1.557507995486667</v>
+        <v>0.6707263406994444</v>
       </c>
       <c r="R22">
-        <v>14.01757195938</v>
+        <v>6.036537066295</v>
       </c>
       <c r="S22">
-        <v>8.866337369918228E-05</v>
+        <v>6.472952760412504E-05</v>
       </c>
       <c r="T22">
-        <v>8.866337369918229E-05</v>
+        <v>6.472952760412506E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H23">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I23">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J23">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.093691</v>
       </c>
       <c r="O23">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P23">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q23">
-        <v>0.1720128034386667</v>
+        <v>0.1147603049507778</v>
       </c>
       <c r="R23">
-        <v>1.548115230948</v>
+        <v>1.032842744557</v>
       </c>
       <c r="S23">
-        <v>9.792075235903369E-06</v>
+        <v>1.107512837414845E-05</v>
       </c>
       <c r="T23">
-        <v>9.792075235903372E-06</v>
+        <v>1.107512837414845E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H24">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I24">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J24">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N24">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O24">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P24">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q24">
-        <v>733.7966759172134</v>
+        <v>379.3692734213046</v>
       </c>
       <c r="R24">
-        <v>6604.17008325492</v>
+        <v>3414.323460791742</v>
       </c>
       <c r="S24">
-        <v>0.04177242690541462</v>
+        <v>0.03661164377482685</v>
       </c>
       <c r="T24">
-        <v>0.04177242690541463</v>
+        <v>0.03661164377482685</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H25">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I25">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J25">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N25">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O25">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P25">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q25">
-        <v>0.2948090629</v>
+        <v>0.1783205933904445</v>
       </c>
       <c r="R25">
-        <v>2.6532815661</v>
+        <v>1.604885340514</v>
       </c>
       <c r="S25">
-        <v>1.678242820553931E-05</v>
+        <v>1.720911655298033E-05</v>
       </c>
       <c r="T25">
-        <v>1.678242820553931E-05</v>
+        <v>1.720911655298033E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H26">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I26">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J26">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N26">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O26">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P26">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q26">
-        <v>802.660588361104</v>
+        <v>271.9143987307068</v>
       </c>
       <c r="R26">
-        <v>7223.945295249937</v>
+        <v>2447.229588576361</v>
       </c>
       <c r="S26">
-        <v>0.0456926037655614</v>
+        <v>0.02624153773391971</v>
       </c>
       <c r="T26">
-        <v>0.04569260376556142</v>
+        <v>0.02624153773391971</v>
       </c>
     </row>
   </sheetData>
